--- a/zero-ecosystem/zero-plugins-extension/zero-exmodule-rbac/zero-exmodule-rbac-domain/src/main/resources/plugins/zero-exmodule-rbac/modulat/SSM_ZERO-E.SEC.xlsx
+++ b/zero-ecosystem/zero-plugins-extension/zero-exmodule-rbac/zero-exmodule-rbac-domain/src/main/resources/plugins/zero-exmodule-rbac/modulat/SSM_ZERO-E.SEC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-plugins-extension/Zero.Extension.Commerce.RBAC.DB/src/main/resources/plugins/zero-extension-commerce-rbac/modulat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/app-zero/zero-ecotope/zero-ecosystem/zero-plugins-extension/zero-exmodule-rbac/zero-exmodule-rbac-domain/src/main/resources/plugins/zero-exmodule-rbac/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69F0A87-FE36-1D42-82A4-7D2D8B99248A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCB3294-45AC-A44A-846D-3102B7DBC70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48480" yWindow="-4360" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="58780" windowHeight="37540" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
   <si>
     <t>key</t>
   </si>
@@ -358,6 +358,26 @@
   </si>
   <si>
     <t>CODE:config</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiOpen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mSecurity</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,12 +563,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -871,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="21"/>
@@ -885,8 +899,9 @@
     <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -918,6 +933,8 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
@@ -950,6 +967,12 @@
       <c r="J3" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
@@ -982,6 +1005,12 @@
       <c r="J4" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="K4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
@@ -1012,6 +1041,12 @@
       <c r="J5" s="8" t="s">
         <v>80</v>
       </c>
+      <c r="K5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="9" t="s">
@@ -1020,24 +1055,24 @@
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="3" t="s">
@@ -1342,10 +1377,11 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:J2"/>
     <mergeCell ref="C12:R12"/>
+    <mergeCell ref="C2:L2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>